--- a/outputs-HGR-r202-archive/g__UBA11471_train.xlsx
+++ b/outputs-HGR-r202-archive/g__UBA11471_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -690,20 +690,20 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_1.fasta</t>
+          <t>label_UMGS49_0.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3745367211423503</v>
+        <v>0.3992617389736441</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03883438885667698</v>
+        <v>7.822952985199722e-13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5866288900009726</v>
+        <v>0.6007382610255736</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5866288900009726</v>
+        <v>0.6007382610255736</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -714,44 +714,44 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_13.fasta</t>
+          <t>label_UMGS49_22.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3281263190532656</v>
+        <v>0.07861443634427109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009674139280047601</v>
+        <v>0.9044534981988966</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6621995416666869</v>
+        <v>0.01693206545683231</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6621995416666869</v>
+        <v>0.9044534981988966</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>s__UBA11471 sp900547555</t>
+          <t>s__UBA11471 sp900542765</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_16.fasta</t>
+          <t>label_UMGS49_4.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2932238001466064</v>
+        <v>0.4584077328183818</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003043874336114002</v>
+        <v>1.101673954328112e-12</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7037323255172795</v>
+        <v>0.5415922671805165</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7037323255172795</v>
+        <v>0.5415922671805165</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -762,20 +762,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_8.fasta</t>
+          <t>label_UMGS49_10.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3208981538657641</v>
+        <v>0.31482257114592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01872104920836696</v>
+        <v>0.001951443457751555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6603807969258689</v>
+        <v>0.6832259853963283</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6603807969258689</v>
+        <v>0.6832259853963283</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -786,20 +786,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_0.fasta</t>
+          <t>label_UMGS49_12.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3992617389736441</v>
+        <v>0.2391872278563878</v>
       </c>
       <c r="C12" t="n">
-        <v>7.822952985199722e-13</v>
+        <v>0.006494222046878908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6007382610255736</v>
+        <v>0.7543185500967334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6007382610255736</v>
+        <v>0.7543185500967334</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -810,44 +810,44 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_22.fasta</t>
+          <t>label_UMGS49_14.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07861443634427109</v>
+        <v>0.2897130456789727</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9044534981988966</v>
+        <v>0.0003239805655726959</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01693206545683231</v>
+        <v>0.7099629737554547</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9044534981988966</v>
+        <v>0.7099629737554547</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>s__UBA11471 sp900542765</t>
+          <t>s__UBA11471 sp900547555</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_4.fasta</t>
+          <t>label_UMGS49_17.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4584077328183818</v>
+        <v>0.2444285678575168</v>
       </c>
       <c r="C14" t="n">
-        <v>1.101673954328112e-12</v>
+        <v>0.0004746545316259928</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5415922671805165</v>
+        <v>0.7550967776108571</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5415922671805165</v>
+        <v>0.7550967776108571</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -858,20 +858,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_10.fasta</t>
+          <t>label_UMGS49_18.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.31482257114592</v>
+        <v>0.2459506736633259</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001951443457751555</v>
+        <v>0.001049379896836633</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6832259853963283</v>
+        <v>0.7529999464398375</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6832259853963283</v>
+        <v>0.7529999464398375</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -882,20 +882,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_12.fasta</t>
+          <t>label_UMGS49_15.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2391872278563878</v>
+        <v>0.1318644063206062</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006494222046878908</v>
+        <v>0.01710833504703471</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7543185500967334</v>
+        <v>0.8510272586323592</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7543185500967334</v>
+        <v>0.8510272586323592</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -906,20 +906,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_14.fasta</t>
+          <t>label_UMGS49_2.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2897130456789727</v>
+        <v>0.3255142390868995</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003239805655726959</v>
+        <v>0.00158939433014233</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7099629737554547</v>
+        <v>0.6728963665829581</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7099629737554547</v>
+        <v>0.6728963665829581</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -930,20 +930,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_17.fasta</t>
+          <t>label_UMGS49_20.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2444285678575168</v>
+        <v>0.2274281196461708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0004746545316259928</v>
+        <v>0.01148065159502157</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7550967776108571</v>
+        <v>0.7610912287588075</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7550967776108571</v>
+        <v>0.7610912287588075</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -954,20 +954,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_18.fasta</t>
+          <t>label_UMGS49_23.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2459506736633259</v>
+        <v>0.1731570015147702</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001049379896836633</v>
+        <v>0.0602215569733782</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7529999464398375</v>
+        <v>0.7666214415118516</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7529999464398375</v>
+        <v>0.7666214415118516</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -978,20 +978,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_15.fasta</t>
+          <t>label_UMGS49_3.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1318644063206062</v>
+        <v>0.2745520223326774</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01710833504703471</v>
+        <v>0.003707952904698904</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8510272586323592</v>
+        <v>0.7217400247626238</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8510272586323592</v>
+        <v>0.7217400247626238</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1002,20 +1002,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_2.fasta</t>
+          <t>label_UMGS49_5.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3255142390868995</v>
+        <v>0.2694664870308329</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00158939433014233</v>
+        <v>0.007751931251598449</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6728963665829581</v>
+        <v>0.7227815817175686</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6728963665829581</v>
+        <v>0.7227815817175686</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1026,20 +1026,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_20.fasta</t>
+          <t>label_UMGS49_11.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2274281196461708</v>
+        <v>0.3262038513052957</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01148065159502157</v>
+        <v>0.0006049023459523473</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7610912287588075</v>
+        <v>0.673191246348752</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7610912287588075</v>
+        <v>0.673191246348752</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1050,20 +1050,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_23.fasta</t>
+          <t>label_UMGS49_19.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1731570015147702</v>
+        <v>0.2526575170273662</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0602215569733782</v>
+        <v>0.001396344263161067</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7666214415118516</v>
+        <v>0.7459461387094728</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7666214415118516</v>
+        <v>0.7459461387094728</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1074,20 +1074,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_3.fasta</t>
+          <t>label_UMGS49_21.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2745520223326774</v>
+        <v>0.1138591905459762</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003707952904698904</v>
+        <v>0.0002495655632979435</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7217400247626238</v>
+        <v>0.8858912438907258</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7217400247626238</v>
+        <v>0.8858912438907258</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1098,20 +1098,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_5.fasta</t>
+          <t>label_UMGS49_6.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2694664870308329</v>
+        <v>0.3881692377901831</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007751931251598449</v>
+        <v>0.003218624365218328</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7227815817175686</v>
+        <v>0.6086121378445986</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7227815817175686</v>
+        <v>0.6086121378445986</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1122,20 +1122,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_11.fasta</t>
+          <t>label_UMGS49_7.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3262038513052957</v>
+        <v>0.3944496361325588</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006049023459523473</v>
+        <v>0.01463245321815184</v>
       </c>
       <c r="D26" t="n">
-        <v>0.673191246348752</v>
+        <v>0.5909179106492893</v>
       </c>
       <c r="E26" t="n">
-        <v>0.673191246348752</v>
+        <v>0.5909179106492893</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1146,118 +1146,22 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS49_19.fasta</t>
+          <t>label_UMGS49_9.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2526575170273662</v>
+        <v>0.3396425355910691</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001396344263161067</v>
+        <v>0.001468380270261033</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7459461387094728</v>
+        <v>0.65888908413867</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7459461387094728</v>
+        <v>0.65888908413867</v>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS49_21.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.1138591905459762</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.0002495655632979435</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.8858912438907258</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.8858912438907258</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS49_6.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.3881692377901831</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.003218624365218328</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.6086121378445986</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.6086121378445986</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS49_7.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.3944496361325588</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01463245321815184</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5909179106492893</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5909179106492893</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS49_9.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.3396425355910691</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.001468380270261033</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.65888908413867</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.65888908413867</v>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>s__UBA11471 sp900547555</t>
         </is>
@@ -1274,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,20 +1437,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_10.fasta</t>
+          <t>label_UMGS494_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07252310963976927</v>
+        <v>0.07717625246123065</v>
       </c>
       <c r="C11" t="n">
-        <v>0.877746801826167</v>
+        <v>0.8996107711952165</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04973008853406369</v>
+        <v>0.02321297634355283</v>
       </c>
       <c r="E11" t="n">
-        <v>0.877746801826167</v>
+        <v>0.8996107711952165</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1557,20 +1461,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_18.fasta</t>
+          <t>label_UMGS494_17.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06982901977656185</v>
+        <v>0.07860084728844197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.853150405543545</v>
+        <v>0.910940449344294</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07702057467989303</v>
+        <v>0.010458703367264</v>
       </c>
       <c r="E12" t="n">
-        <v>0.853150405543545</v>
+        <v>0.910940449344294</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1581,20 +1485,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_22.fasta</t>
+          <t>label_UMGS494_19.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0652383353843365</v>
+        <v>0.0801346255273763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8595829494637427</v>
+        <v>0.883679412602547</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07517871515192091</v>
+        <v>0.03618596187007663</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8595829494637427</v>
+        <v>0.883679412602547</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1605,20 +1509,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_24.fasta</t>
+          <t>label_UMGS494_26.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07837210908180714</v>
+        <v>0.06569484408145257</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8861039612999713</v>
+        <v>0.8487009734968846</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03552392961822165</v>
+        <v>0.08560418242166289</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8861039612999713</v>
+        <v>0.8487009734968846</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1629,20 +1533,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_35.fasta</t>
+          <t>label_UMGS494_29.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.06987579284962595</v>
+        <v>0.08164707128908555</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9234396904563834</v>
+        <v>0.9087219709001315</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006684516693990721</v>
+        <v>0.009630957810782948</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9234396904563834</v>
+        <v>0.9087219709001315</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1653,20 +1557,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_47.fasta</t>
+          <t>label_UMGS494_3.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0812444551956476</v>
+        <v>0.0764363871397699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9186998256148905</v>
+        <v>0.9096091682877459</v>
       </c>
       <c r="D16" t="n">
-        <v>5.571918946186066e-05</v>
+        <v>0.01395444457248431</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9186998256148905</v>
+        <v>0.9096091682877459</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1677,20 +1581,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_50.fasta</t>
+          <t>label_UMGS494_31.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1328821898261434</v>
+        <v>0.0820876261249565</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8663995969356979</v>
+        <v>0.9142074380732607</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0007182132381587758</v>
+        <v>0.003704935801782791</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8663995969356979</v>
+        <v>0.9142074380732607</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1701,44 +1605,44 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_6.fasta</t>
+          <t>label_UMGS494_33.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07790103647510406</v>
+        <v>0.09616034351781368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8906401037332919</v>
+        <v>0.215747275150607</v>
       </c>
       <c r="D18" t="n">
-        <v>0.031458859791604</v>
+        <v>0.6880923813315794</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8906401037332919</v>
+        <v>0.6880923813315794</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>s__UBA11471 sp900542765</t>
+          <t>s__UBA11471 sp900547555</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_13.fasta</t>
+          <t>label_UMGS494_37.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.07717625246123065</v>
+        <v>0.0963401471608856</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8996107711952165</v>
+        <v>0.9036166318285251</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02321297634355283</v>
+        <v>4.322101058930036e-05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8996107711952165</v>
+        <v>0.9036166318285251</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1749,20 +1653,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_17.fasta</t>
+          <t>label_UMGS494_38.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07860084728844197</v>
+        <v>0.09258541527160133</v>
       </c>
       <c r="C20" t="n">
-        <v>0.910940449344294</v>
+        <v>0.9057586225892378</v>
       </c>
       <c r="D20" t="n">
-        <v>0.010458703367264</v>
+        <v>0.001655962139160844</v>
       </c>
       <c r="E20" t="n">
-        <v>0.910940449344294</v>
+        <v>0.9057586225892378</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1773,20 +1677,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_19.fasta</t>
+          <t>label_UMGS494_45.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0801346255273763</v>
+        <v>0.09513998928677132</v>
       </c>
       <c r="C21" t="n">
-        <v>0.883679412602547</v>
+        <v>0.9048467188067616</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03618596187007663</v>
+        <v>1.329190646706784e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>0.883679412602547</v>
+        <v>0.9048467188067616</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1797,44 +1701,44 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_26.fasta</t>
+          <t>label_UMGS494_5.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06569484408145257</v>
+        <v>0.2984772554240602</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8487009734968846</v>
+        <v>2.500136306950651e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08560418242166289</v>
+        <v>0.7015227445756899</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8487009734968846</v>
+        <v>0.7015227445756899</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>s__UBA11471 sp900542765</t>
+          <t>s__UBA11471 sp900547555</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_29.fasta</t>
+          <t>label_UMGS494_7.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.08164707128908555</v>
+        <v>0.04673691128166497</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9087219709001315</v>
+        <v>0.7516250400679084</v>
       </c>
       <c r="D23" t="n">
-        <v>0.009630957810782948</v>
+        <v>0.2016380486504267</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9087219709001315</v>
+        <v>0.7516250400679084</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1845,20 +1749,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_3.fasta</t>
+          <t>label_UMGS494_9.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0764363871397699</v>
+        <v>0.07705175112406411</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9096091682877459</v>
+        <v>0.899112916723399</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01395444457248431</v>
+        <v>0.02383533215253692</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9096091682877459</v>
+        <v>0.899112916723399</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1869,20 +1773,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_31.fasta</t>
+          <t>label_UMGS494_15.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0820876261249565</v>
+        <v>0.04949044797527875</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9142074380732607</v>
+        <v>0.81405712110575</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003704935801782791</v>
+        <v>0.1364524309189713</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9142074380732607</v>
+        <v>0.81405712110575</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1893,44 +1797,44 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_33.fasta</t>
+          <t>label_UMGS494_2.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.09616034351781368</v>
+        <v>0.06208345663314854</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215747275150607</v>
+        <v>0.8265867895945672</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6880923813315794</v>
+        <v>0.1113297537722843</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6880923813315794</v>
+        <v>0.8265867895945672</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>s__UBA11471 sp900547555</t>
+          <t>s__UBA11471 sp900542765</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_37.fasta</t>
+          <t>label_UMGS494_20.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0963401471608856</v>
+        <v>0.04147183292551222</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9036166318285251</v>
+        <v>0.7472834131692275</v>
       </c>
       <c r="D27" t="n">
-        <v>4.322101058930036e-05</v>
+        <v>0.2112447539052603</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9036166318285251</v>
+        <v>0.7472834131692275</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1941,20 +1845,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_38.fasta</t>
+          <t>label_UMGS494_23.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.09258541527160133</v>
+        <v>0.05343100091753625</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9057586225892378</v>
+        <v>0.8272298988035175</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001655962139160844</v>
+        <v>0.1193391002789462</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9057586225892378</v>
+        <v>0.8272298988035175</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1965,20 +1869,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_45.fasta</t>
+          <t>label_UMGS494_27.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.09513998928677132</v>
+        <v>0.0570198818992939</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9048467188067616</v>
+        <v>0.8429997297345729</v>
       </c>
       <c r="D29" t="n">
-        <v>1.329190646706784e-05</v>
+        <v>0.09998038836613321</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9048467188067616</v>
+        <v>0.8429997297345729</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1989,44 +1893,44 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_5.fasta</t>
+          <t>label_UMGS494_36.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2984772554240602</v>
+        <v>0.04921368134070686</v>
       </c>
       <c r="C30" t="n">
-        <v>2.500136306950651e-13</v>
+        <v>0.7762936337245129</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7015227445756899</v>
+        <v>0.1744926849347802</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7015227445756899</v>
+        <v>0.7762936337245129</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>s__UBA11471 sp900547555</t>
+          <t>s__UBA11471 sp900542765</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_7.fasta</t>
+          <t>label_UMGS494_4.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.04673691128166497</v>
+        <v>0.05176714236434853</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7516250400679084</v>
+        <v>0.7726402408219331</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2016380486504267</v>
+        <v>0.1755926168137185</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7516250400679084</v>
+        <v>0.7726402408219331</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2037,20 +1941,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_9.fasta</t>
+          <t>label_UMGS494_43.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.07705175112406411</v>
+        <v>0.06615520001361493</v>
       </c>
       <c r="C32" t="n">
-        <v>0.899112916723399</v>
+        <v>0.8948150578716517</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02383533215253692</v>
+        <v>0.03902974211473337</v>
       </c>
       <c r="E32" t="n">
-        <v>0.899112916723399</v>
+        <v>0.8948150578716517</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2061,20 +1965,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_15.fasta</t>
+          <t>label_UMGS494_8.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04949044797527875</v>
+        <v>0.0614101788092678</v>
       </c>
       <c r="C33" t="n">
-        <v>0.81405712110575</v>
+        <v>0.8284309599934729</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1364524309189713</v>
+        <v>0.1101588611972592</v>
       </c>
       <c r="E33" t="n">
-        <v>0.81405712110575</v>
+        <v>0.8284309599934729</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2085,20 +1989,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_2.fasta</t>
+          <t>label_UMGS494_0.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.06208345663314854</v>
+        <v>0.06798726200560741</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8265867895945672</v>
+        <v>0.9147668333129747</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1113297537722843</v>
+        <v>0.01724590468141779</v>
       </c>
       <c r="E34" t="n">
-        <v>0.8265867895945672</v>
+        <v>0.9147668333129747</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2109,20 +2013,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_20.fasta</t>
+          <t>label_UMGS494_1.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04147183292551222</v>
+        <v>0.04380913967933153</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7472834131692275</v>
+        <v>0.7548577063890795</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2112447539052603</v>
+        <v>0.201333153931589</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7472834131692275</v>
+        <v>0.7548577063890795</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2133,20 +2037,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_23.fasta</t>
+          <t>label_UMGS494_25.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.05343100091753625</v>
+        <v>0.0457093587875682</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8272298988035175</v>
+        <v>0.8462702994398084</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1193391002789462</v>
+        <v>0.1080203417726234</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8272298988035175</v>
+        <v>0.8462702994398084</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2157,20 +2061,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_27.fasta</t>
+          <t>label_UMGS494_28.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0570198818992939</v>
+        <v>0.03994660266089795</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8429997297345729</v>
+        <v>0.8339304857554519</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09998038836613321</v>
+        <v>0.1261229115836501</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8429997297345729</v>
+        <v>0.8339304857554519</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2181,20 +2085,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_36.fasta</t>
+          <t>label_UMGS494_32.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.04921368134070686</v>
+        <v>0.06078372108497845</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7762936337245129</v>
+        <v>0.9181792279263808</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1744926849347802</v>
+        <v>0.0210370509886406</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7762936337245129</v>
+        <v>0.9181792279263808</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2205,20 +2109,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_4.fasta</t>
+          <t>label_UMGS494_34.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.05176714236434853</v>
+        <v>0.0347692733404549</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7726402408219331</v>
+        <v>0.8071869938955968</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1755926168137185</v>
+        <v>0.1580437327639483</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7726402408219331</v>
+        <v>0.8071869938955968</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2229,20 +2133,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_43.fasta</t>
+          <t>label_UMGS494_40.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.06615520001361493</v>
+        <v>0.05202132307208304</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8948150578716517</v>
+        <v>0.9341308343005529</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03902974211473337</v>
+        <v>0.01384784262736405</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8948150578716517</v>
+        <v>0.9341308343005529</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2253,20 +2157,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_8.fasta</t>
+          <t>label_UMGS494_41.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0614101788092678</v>
+        <v>0.02941794509778605</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8284309599934729</v>
+        <v>0.7559804394988551</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1101588611972592</v>
+        <v>0.2146016154033588</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8284309599934729</v>
+        <v>0.7559804394988551</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2277,20 +2181,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_0.fasta</t>
+          <t>label_UMGS494_44.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.06798726200560741</v>
+        <v>0.04474510561494845</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9147668333129747</v>
+        <v>0.8971945664737788</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01724590468141779</v>
+        <v>0.0580603279112727</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9147668333129747</v>
+        <v>0.8971945664737788</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2301,20 +2205,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_1.fasta</t>
+          <t>label_UMGS494_48.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.04380913967933153</v>
+        <v>0.08978896786843636</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7548577063890795</v>
+        <v>0.9099697189161617</v>
       </c>
       <c r="D43" t="n">
-        <v>0.201333153931589</v>
+        <v>0.0002413132154019575</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7548577063890795</v>
+        <v>0.9099697189161617</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2325,20 +2229,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_25.fasta</t>
+          <t>label_UMGS494_49.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0457093587875682</v>
+        <v>0.0914900079629594</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8462702994398084</v>
+        <v>0.7163528866054086</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1080203417726234</v>
+        <v>0.192157105431632</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8462702994398084</v>
+        <v>0.7163528866054086</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2349,20 +2253,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_28.fasta</t>
+          <t>label_UMGS494_11.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.03994660266089795</v>
+        <v>0.07366143375186461</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8339304857554519</v>
+        <v>0.9170505853329403</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1261229115836501</v>
+        <v>0.009287980915195221</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8339304857554519</v>
+        <v>0.9170505853329403</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2373,20 +2277,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_32.fasta</t>
+          <t>label_UMGS494_12.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.06078372108497845</v>
+        <v>0.07404486794832489</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9181792279263808</v>
+        <v>0.924066147520074</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0210370509886406</v>
+        <v>0.001888984531601049</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9181792279263808</v>
+        <v>0.924066147520074</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2397,20 +2301,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_34.fasta</t>
+          <t>label_UMGS494_14.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0347692733404549</v>
+        <v>0.06230946628095758</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8071869938955968</v>
+        <v>0.8480178877884873</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1580437327639483</v>
+        <v>0.08967264593055514</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8071869938955968</v>
+        <v>0.8480178877884873</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2421,20 +2325,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_40.fasta</t>
+          <t>label_UMGS494_16.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.05202132307208304</v>
+        <v>0.06826473394234682</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9341308343005529</v>
+        <v>0.9258454999933707</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01384784262736405</v>
+        <v>0.00588976606428239</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9341308343005529</v>
+        <v>0.9258454999933707</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2445,20 +2349,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_41.fasta</t>
+          <t>label_UMGS494_21.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02941794509778605</v>
+        <v>0.06557166704854127</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7559804394988551</v>
+        <v>0.8618590546294873</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2146016154033588</v>
+        <v>0.07256927832197144</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7559804394988551</v>
+        <v>0.8618590546294873</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2469,20 +2373,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_44.fasta</t>
+          <t>label_UMGS494_30.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.04474510561494845</v>
+        <v>0.07000835242356766</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8971945664737788</v>
+        <v>0.9231935863263038</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0580603279112727</v>
+        <v>0.006798061250128614</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8971945664737788</v>
+        <v>0.9231935863263038</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2493,262 +2397,70 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_48.fasta</t>
+          <t>label_UMGS494_39.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.08978896786843636</v>
+        <v>0.09335386398510265</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9099697189161617</v>
+        <v>0.2069558813318193</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0002413132154019575</v>
+        <v>0.6996902546830781</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9099697189161617</v>
+        <v>0.6996902546830781</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>s__UBA11471 sp900542765</t>
+          <t>s__UBA11471 sp900547555</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_49.fasta</t>
+          <t>label_UMGS494_42.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0914900079629594</v>
+        <v>0.1223166584157123</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7163528866054086</v>
+        <v>0.3046068134402796</v>
       </c>
       <c r="D52" t="n">
-        <v>0.192157105431632</v>
+        <v>0.5730765281440081</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7163528866054086</v>
+        <v>0.5730765281440081</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>s__UBA11471 sp900542765</t>
+          <t>s__UBA11471 sp900547555</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS494_11.fasta</t>
+          <t>label_UMGS494_46.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.07366143375186461</v>
+        <v>0.2626804270607246</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9170505853329403</v>
+        <v>0.3749666898588674</v>
       </c>
       <c r="D53" t="n">
-        <v>0.009287980915195221</v>
+        <v>0.3623528830804079</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9170505853329403</v>
+        <v>0.3749666898588674</v>
       </c>
       <c r="F53" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900542765</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS494_12.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.07404486794832489</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.924066147520074</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.001888984531601049</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.924066147520074</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900542765</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS494_14.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.06230946628095758</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.8480178877884873</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.08967264593055514</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.8480178877884873</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900542765</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS494_16.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.06826473394234682</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.9258454999933707</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.00588976606428239</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.9258454999933707</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900542765</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS494_21.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.06557166704854127</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.8618590546294873</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.07256927832197144</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.8618590546294873</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900542765</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS494_30.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.07000835242356766</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.9231935863263038</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.006798061250128614</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.9231935863263038</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900542765</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS494_39.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.09335386398510265</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.2069558813318193</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.6996902546830781</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.6996902546830781</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS494_42.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.1223166584157123</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.3046068134402796</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.5730765281440081</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5730765281440081</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS494_46.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.2626804270607246</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.3749666898588674</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.3623528830804079</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.3749666898588674</v>
-      </c>
-      <c r="F61" t="inlineStr">
         <is>
           <t>s__UBA11471 sp900542765</t>
         </is>
@@ -2765,7 +2477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3144,20 +2856,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_1.fasta</t>
+          <t>label_UMGS999_13.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3314182526497729</v>
+        <v>0.2247995505284942</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02477286283133653</v>
+        <v>5.356289960698588e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6438088845188904</v>
+        <v>0.7752004494714523</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6438088845188904</v>
+        <v>0.7752004494714523</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -3168,20 +2880,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_10.fasta</t>
+          <t>label_UMGS999_14.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2467658275742029</v>
+        <v>0.3467046402693509</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03945769235446048</v>
+        <v>3.072067746670062e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7137764800713365</v>
+        <v>0.6532953597303419</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7137764800713365</v>
+        <v>0.6532953597303419</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3192,20 +2904,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_15.fasta</t>
+          <t>label_UMGS999_2.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1993924338250145</v>
+        <v>0.3749346315823386</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0118337347325222</v>
+        <v>4.75357631178429e-13</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7887738314424633</v>
+        <v>0.625065368417186</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7887738314424633</v>
+        <v>0.625065368417186</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -3216,20 +2928,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_17.fasta</t>
+          <t>label_UMGS999_20.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2575706787030725</v>
+        <v>0.1833902415715448</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001163518978423786</v>
+        <v>2.275583709075043e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7412658023185037</v>
+        <v>0.8166097584284324</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7412658023185037</v>
+        <v>0.8166097584284324</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3240,20 +2952,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_22.fasta</t>
+          <t>label_UMGS999_21.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2069160059535682</v>
+        <v>0.2425205949184587</v>
       </c>
       <c r="C20" t="n">
-        <v>0.005717119303479731</v>
+        <v>7.018929590708588e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0.787366874742952</v>
+        <v>0.757479405081471</v>
       </c>
       <c r="E20" t="n">
-        <v>0.787366874742952</v>
+        <v>0.757479405081471</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -3264,20 +2976,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_26.fasta</t>
+          <t>label_UMGS999_33.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1676847531314015</v>
+        <v>0.2227054602905049</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004416971917135218</v>
+        <v>5.211331844623261e-14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8278982749514633</v>
+        <v>0.7772945397094431</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8278982749514633</v>
+        <v>0.7772945397094431</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -3288,20 +3000,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_28.fasta</t>
+          <t>label_UMGS999_37.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2251588703682443</v>
+        <v>0.1698806010413202</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004151019244049084</v>
+        <v>2.220104708048702e-14</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7706901103877067</v>
+        <v>0.8301193989586575</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7706901103877067</v>
+        <v>0.8301193989586575</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -3312,20 +3024,20 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_3.fasta</t>
+          <t>label_UMGS999_44.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3040705874602178</v>
+        <v>0.1498331016747599</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01802232665342314</v>
+        <v>2.220076705370303e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6779070858863592</v>
+        <v>0.8501668983252177</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6779070858863592</v>
+        <v>0.8501668983252177</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -3336,20 +3048,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_38.fasta</t>
+          <t>label_UMGS999_50.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1929519678337173</v>
+        <v>0.1226559061610751</v>
       </c>
       <c r="C24" t="n">
-        <v>0.005942775151125269</v>
+        <v>2.219985356576281e-14</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8011052570151574</v>
+        <v>0.8773440938389027</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8011052570151574</v>
+        <v>0.8773440938389027</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3360,20 +3072,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_39.fasta</t>
+          <t>label_UMGS999_59.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1377753048568035</v>
+        <v>0.136833255334438</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08167241249589603</v>
+        <v>2.220101345641811e-14</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7805522826473005</v>
+        <v>0.8631667446655398</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7805522826473005</v>
+        <v>0.8631667446655398</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3384,20 +3096,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_4.fasta</t>
+          <t>label_UMGS999_64.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2621011998109457</v>
+        <v>0.2444729077413871</v>
       </c>
       <c r="C26" t="n">
-        <v>0.09466403822525081</v>
+        <v>2.882187339003567e-13</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6432347619638035</v>
+        <v>0.7555270922583247</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6432347619638035</v>
+        <v>0.7555270922583247</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3408,20 +3120,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_41.fasta</t>
+          <t>label_UMGS999_9.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1535093904856698</v>
+        <v>0.344296905778065</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06055683659011433</v>
+        <v>2.914383583752856e-13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7859337729242158</v>
+        <v>0.6557030942216435</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7859337729242158</v>
+        <v>0.6557030942216435</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3432,20 +3144,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_57.fasta</t>
+          <t>label_UMGS999_0.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1336234637953264</v>
+        <v>0.3774735774228399</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0005223782097537822</v>
+        <v>0.004300288964544126</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8658541579949198</v>
+        <v>0.6182261336126159</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8658541579949198</v>
+        <v>0.6182261336126159</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3456,20 +3168,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_58.fasta</t>
+          <t>label_UMGS999_12.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1354085060283493</v>
+        <v>0.2450539519847064</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01745266830138575</v>
+        <v>0.00410844587901149</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8471388256702649</v>
+        <v>0.750837602136282</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8471388256702649</v>
+        <v>0.750837602136282</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -3480,20 +3192,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_61.fasta</t>
+          <t>label_UMGS999_18.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1653518359136119</v>
+        <v>0.1837225777733436</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1189601385494339</v>
+        <v>0.05607691084826548</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7156880255369542</v>
+        <v>0.7602005113783908</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7156880255369542</v>
+        <v>0.7602005113783908</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3504,20 +3216,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_63.fasta</t>
+          <t>label_UMGS999_25.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2277277438931549</v>
+        <v>0.1518740069890288</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2854357370106217</v>
+        <v>0.1264728378945333</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4868365190962233</v>
+        <v>0.721653155116438</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4868365190962233</v>
+        <v>0.721653155116438</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -3528,44 +3240,44 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_65.fasta</t>
+          <t>label_UMGS999_27.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2739764515224256</v>
+        <v>0.2150816919169111</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4274587514206924</v>
+        <v>0.001189653473985412</v>
       </c>
       <c r="D32" t="n">
-        <v>0.298564797056882</v>
+        <v>0.7837286546091035</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4274587514206924</v>
+        <v>0.7837286546091035</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>s__UBA11471 sp900542765</t>
+          <t>s__UBA11471 sp900547555</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_13.fasta</t>
+          <t>label_UMGS999_30.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2247995505284942</v>
+        <v>0.1221842502976825</v>
       </c>
       <c r="C33" t="n">
-        <v>5.356289960698588e-14</v>
+        <v>0.1439778098195022</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7752004494714523</v>
+        <v>0.7338379398828154</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7752004494714523</v>
+        <v>0.7338379398828154</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3576,20 +3288,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_14.fasta</t>
+          <t>label_UMGS999_35.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3467046402693509</v>
+        <v>0.2000664407700955</v>
       </c>
       <c r="C34" t="n">
-        <v>3.072067746670062e-13</v>
+        <v>0.004972679148902421</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6532953597303419</v>
+        <v>0.7949608800810021</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6532953597303419</v>
+        <v>0.7949608800810021</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3600,20 +3312,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_2.fasta</t>
+          <t>label_UMGS999_40.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3749346315823386</v>
+        <v>0.1566879137421703</v>
       </c>
       <c r="C35" t="n">
-        <v>4.75357631178429e-13</v>
+        <v>0.000270854348888368</v>
       </c>
       <c r="D35" t="n">
-        <v>0.625065368417186</v>
+        <v>0.8430412319089413</v>
       </c>
       <c r="E35" t="n">
-        <v>0.625065368417186</v>
+        <v>0.8430412319089413</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3624,20 +3336,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_20.fasta</t>
+          <t>label_UMGS999_49.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1833902415715448</v>
+        <v>0.1599015100457246</v>
       </c>
       <c r="C36" t="n">
-        <v>2.275583709075043e-14</v>
+        <v>0.0134798314943889</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8166097584284324</v>
+        <v>0.8266186584598866</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8166097584284324</v>
+        <v>0.8266186584598866</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3648,20 +3360,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_21.fasta</t>
+          <t>label_UMGS999_53.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2425205949184587</v>
+        <v>0.1766187528844705</v>
       </c>
       <c r="C37" t="n">
-        <v>7.018929590708588e-14</v>
+        <v>0.05331289045869586</v>
       </c>
       <c r="D37" t="n">
-        <v>0.757479405081471</v>
+        <v>0.7700683566568337</v>
       </c>
       <c r="E37" t="n">
-        <v>0.757479405081471</v>
+        <v>0.7700683566568337</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3672,20 +3384,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_33.fasta</t>
+          <t>label_UMGS999_55.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2227054602905049</v>
+        <v>0.1334279946088123</v>
       </c>
       <c r="C38" t="n">
-        <v>5.211331844623261e-14</v>
+        <v>0.03125756843258908</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7772945397094431</v>
+        <v>0.8353144369585985</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7772945397094431</v>
+        <v>0.8353144369585985</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3696,20 +3408,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_37.fasta</t>
+          <t>label_UMGS999_56.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1698806010413202</v>
+        <v>0.1277600563607866</v>
       </c>
       <c r="C39" t="n">
-        <v>2.220104708048702e-14</v>
+        <v>0.07876866816703793</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8301193989586575</v>
+        <v>0.7934712754721754</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8301193989586575</v>
+        <v>0.7934712754721754</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3720,20 +3432,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_44.fasta</t>
+          <t>label_UMGS999_68.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1498331016747599</v>
+        <v>0.3390285855851675</v>
       </c>
       <c r="C40" t="n">
-        <v>2.220076705370303e-14</v>
+        <v>0.1646219305528477</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8501668983252177</v>
+        <v>0.4963494838619849</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8501668983252177</v>
+        <v>0.4963494838619849</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3744,20 +3456,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_50.fasta</t>
+          <t>label_UMGS999_69.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1226559061610751</v>
+        <v>0.2493116859596008</v>
       </c>
       <c r="C41" t="n">
-        <v>2.219985356576281e-14</v>
+        <v>0.03689141909427809</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8773440938389027</v>
+        <v>0.7137968949461212</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8773440938389027</v>
+        <v>0.7137968949461212</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3768,20 +3480,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_59.fasta</t>
+          <t>label_UMGS999_8.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.136833255334438</v>
+        <v>0.3093639285728253</v>
       </c>
       <c r="C42" t="n">
-        <v>2.220101345641811e-14</v>
+        <v>0.001502135910992257</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8631667446655398</v>
+        <v>0.6891339355161825</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8631667446655398</v>
+        <v>0.6891339355161825</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3792,20 +3504,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_64.fasta</t>
+          <t>label_UMGS999_16.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2444729077413871</v>
+        <v>0.2028900319730134</v>
       </c>
       <c r="C43" t="n">
-        <v>2.882187339003567e-13</v>
+        <v>0.04290317126625533</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7555270922583247</v>
+        <v>0.7542067967607313</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7555270922583247</v>
+        <v>0.7542067967607313</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3816,20 +3528,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_9.fasta</t>
+          <t>label_UMGS999_23.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.344296905778065</v>
+        <v>0.1855077920281913</v>
       </c>
       <c r="C44" t="n">
-        <v>2.914383583752856e-13</v>
+        <v>0.008499197274842597</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6557030942216435</v>
+        <v>0.8059930106969662</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6557030942216435</v>
+        <v>0.8059930106969662</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3840,20 +3552,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_0.fasta</t>
+          <t>label_UMGS999_29.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3774735774228399</v>
+        <v>0.1612153389446767</v>
       </c>
       <c r="C45" t="n">
-        <v>0.004300288964544126</v>
+        <v>0.007487559136077222</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6182261336126159</v>
+        <v>0.8312971019192461</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6182261336126159</v>
+        <v>0.8312971019192461</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3864,20 +3576,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_12.fasta</t>
+          <t>label_UMGS999_32.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2450539519847064</v>
+        <v>0.1799790454703218</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00410844587901149</v>
+        <v>0.006365403818018951</v>
       </c>
       <c r="D46" t="n">
-        <v>0.750837602136282</v>
+        <v>0.8136555507116593</v>
       </c>
       <c r="E46" t="n">
-        <v>0.750837602136282</v>
+        <v>0.8136555507116593</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3888,20 +3600,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_18.fasta</t>
+          <t>label_UMGS999_36.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1837225777733436</v>
+        <v>0.2004949889904463</v>
       </c>
       <c r="C47" t="n">
-        <v>0.05607691084826548</v>
+        <v>0.001723992381637516</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7602005113783908</v>
+        <v>0.7977810186279162</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7602005113783908</v>
+        <v>0.7977810186279162</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3912,20 +3624,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_25.fasta</t>
+          <t>label_UMGS999_45.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1518740069890288</v>
+        <v>0.1394542615925133</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1264728378945333</v>
+        <v>0.01621333840081728</v>
       </c>
       <c r="D48" t="n">
-        <v>0.721653155116438</v>
+        <v>0.8443324000066693</v>
       </c>
       <c r="E48" t="n">
-        <v>0.721653155116438</v>
+        <v>0.8443324000066693</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3936,20 +3648,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_27.fasta</t>
+          <t>label_UMGS999_47.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2150816919169111</v>
+        <v>0.1646411664444526</v>
       </c>
       <c r="C49" t="n">
-        <v>0.001189653473985412</v>
+        <v>0.00870538370815826</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7837286546091035</v>
+        <v>0.8266534498473892</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7837286546091035</v>
+        <v>0.8266534498473892</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3960,20 +3672,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_30.fasta</t>
+          <t>label_UMGS999_48.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1221842502976825</v>
+        <v>0.1219142512502738</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1439778098195022</v>
+        <v>0.001924030487077407</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7338379398828154</v>
+        <v>0.8761617182626489</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7338379398828154</v>
+        <v>0.8761617182626489</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3984,20 +3696,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_35.fasta</t>
+          <t>label_UMGS999_5.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2000664407700955</v>
+        <v>0.2762352740513027</v>
       </c>
       <c r="C51" t="n">
-        <v>0.004972679148902421</v>
+        <v>0.002444755445967893</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7949608800810021</v>
+        <v>0.7213199705027293</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7949608800810021</v>
+        <v>0.7213199705027293</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -4008,20 +3720,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_40.fasta</t>
+          <t>label_UMGS999_51.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1566879137421703</v>
+        <v>0.1228563305293103</v>
       </c>
       <c r="C52" t="n">
-        <v>0.000270854348888368</v>
+        <v>0.009537939733734424</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8430412319089413</v>
+        <v>0.8676057297369553</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8430412319089413</v>
+        <v>0.8676057297369553</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -4032,20 +3744,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_49.fasta</t>
+          <t>label_UMGS999_52.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1599015100457246</v>
+        <v>0.1371051885435863</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0134798314943889</v>
+        <v>0.006952613427851902</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8266186584598866</v>
+        <v>0.8559421980285619</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8266186584598866</v>
+        <v>0.8559421980285619</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -4056,20 +3768,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_53.fasta</t>
+          <t>label_UMGS999_66.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1766187528844705</v>
+        <v>0.2278403757207542</v>
       </c>
       <c r="C54" t="n">
-        <v>0.05331289045869586</v>
+        <v>0.0658709265146388</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7700683566568337</v>
+        <v>0.7062886977646069</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7700683566568337</v>
+        <v>0.7062886977646069</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -4080,20 +3792,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_55.fasta</t>
+          <t>label_UMGS999_11.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1334279946088123</v>
+        <v>0.3039482910228903</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03125756843258908</v>
+        <v>0.0003870985811774155</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8353144369585985</v>
+        <v>0.6956646103959322</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8353144369585985</v>
+        <v>0.6956646103959322</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -4104,20 +3816,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_56.fasta</t>
+          <t>label_UMGS999_19.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1277600563607866</v>
+        <v>0.2465526765160244</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07876866816703793</v>
+        <v>0.01124759553869117</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7934712754721754</v>
+        <v>0.7421997279452844</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7934712754721754</v>
+        <v>0.7421997279452844</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -4128,20 +3840,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_68.fasta</t>
+          <t>label_UMGS999_24.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3390285855851675</v>
+        <v>0.178010721615287</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1646219305528477</v>
+        <v>0.0005595636108646226</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4963494838619849</v>
+        <v>0.8214297147738483</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4963494838619849</v>
+        <v>0.8214297147738483</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -4152,20 +3864,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_69.fasta</t>
+          <t>label_UMGS999_31.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2493116859596008</v>
+        <v>0.1634605299231797</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03689141909427809</v>
+        <v>0.00224710753438145</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7137968949461212</v>
+        <v>0.8342923625424389</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7137968949461212</v>
+        <v>0.8342923625424389</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -4176,20 +3888,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_8.fasta</t>
+          <t>label_UMGS999_34.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3093639285728253</v>
+        <v>0.1469890784319241</v>
       </c>
       <c r="C59" t="n">
-        <v>0.001502135910992257</v>
+        <v>0.0009384226987186825</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6891339355161825</v>
+        <v>0.8520724988693572</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6891339355161825</v>
+        <v>0.8520724988693572</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -4200,20 +3912,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_16.fasta</t>
+          <t>label_UMGS999_42.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2028900319730134</v>
+        <v>0.1252034357611078</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04290317126625533</v>
+        <v>0.001006171573262015</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7542067967607313</v>
+        <v>0.8737903926656302</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7542067967607313</v>
+        <v>0.8737903926656302</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -4224,20 +3936,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_23.fasta</t>
+          <t>label_UMGS999_43.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1855077920281913</v>
+        <v>0.1465212060316351</v>
       </c>
       <c r="C61" t="n">
-        <v>0.008499197274842597</v>
+        <v>6.764959729430567e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8059930106969662</v>
+        <v>0.8534111443710705</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8059930106969662</v>
+        <v>0.8534111443710705</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -4248,20 +3960,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_29.fasta</t>
+          <t>label_UMGS999_46.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1612153389446767</v>
+        <v>0.1210610714554061</v>
       </c>
       <c r="C62" t="n">
-        <v>0.007487559136077222</v>
+        <v>0.0003339487166447375</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8312971019192461</v>
+        <v>0.8786049798279492</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8312971019192461</v>
+        <v>0.8786049798279492</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -4272,20 +3984,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_32.fasta</t>
+          <t>label_UMGS999_54.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1799790454703218</v>
+        <v>0.1045940983485225</v>
       </c>
       <c r="C63" t="n">
-        <v>0.006365403818018951</v>
+        <v>0.002097181369982106</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8136555507116593</v>
+        <v>0.8933087202814954</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8136555507116593</v>
+        <v>0.8933087202814954</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -4296,20 +4008,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_36.fasta</t>
+          <t>label_UMGS999_6.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2004949889904463</v>
+        <v>0.3870281087018057</v>
       </c>
       <c r="C64" t="n">
-        <v>0.001723992381637516</v>
+        <v>0.005682547298078777</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7977810186279162</v>
+        <v>0.6072893440001155</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7977810186279162</v>
+        <v>0.6072893440001155</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -4320,20 +4032,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_45.fasta</t>
+          <t>label_UMGS999_60.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1394542615925133</v>
+        <v>0.08839937372377402</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01621333840081728</v>
+        <v>0.003501423175352517</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8443324000066693</v>
+        <v>0.9080992031008734</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8443324000066693</v>
+        <v>0.9080992031008734</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4344,20 +4056,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_47.fasta</t>
+          <t>label_UMGS999_62.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1646411664444526</v>
+        <v>0.08289667035702888</v>
       </c>
       <c r="C66" t="n">
-        <v>0.00870538370815826</v>
+        <v>0.0008511990319040602</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8266534498473892</v>
+        <v>0.916252130611067</v>
       </c>
       <c r="E66" t="n">
-        <v>0.8266534498473892</v>
+        <v>0.916252130611067</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4368,454 +4080,46 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_48.fasta</t>
+          <t>label_UMGS999_67.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1219142512502738</v>
+        <v>0.3423836746326712</v>
       </c>
       <c r="C67" t="n">
-        <v>0.001924030487077407</v>
+        <v>0.3425530579525928</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8761617182626489</v>
+        <v>0.3150632674147361</v>
       </c>
       <c r="E67" t="n">
-        <v>0.8761617182626489</v>
+        <v>0.3425530579525928</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>s__UBA11471 sp900547555</t>
+          <t>s__UBA11471 sp900542765</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS999_5.fasta</t>
+          <t>label_UMGS999_7.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2762352740513027</v>
+        <v>0.3482424040525535</v>
       </c>
       <c r="C68" t="n">
-        <v>0.002444755445967893</v>
+        <v>0.002668744593009711</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7213199705027293</v>
+        <v>0.6490888513544367</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7213199705027293</v>
+        <v>0.6490888513544367</v>
       </c>
       <c r="F68" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_51.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.1228563305293103</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.009537939733734424</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.8676057297369553</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.8676057297369553</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_52.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.1371051885435863</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.006952613427851902</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.8559421980285619</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.8559421980285619</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_66.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.2278403757207542</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.0658709265146388</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.7062886977646069</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.7062886977646069</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_11.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.3039482910228903</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.0003870985811774155</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.6956646103959322</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.6956646103959322</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_19.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.2465526765160244</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.01124759553869117</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.7421997279452844</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.7421997279452844</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_24.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.178010721615287</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.0005595636108646226</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.8214297147738483</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.8214297147738483</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_31.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.1634605299231797</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.00224710753438145</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.8342923625424389</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.8342923625424389</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_34.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.1469890784319241</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.0009384226987186825</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.8520724988693572</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.8520724988693572</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_42.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.1252034357611078</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.001006171573262015</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.8737903926656302</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.8737903926656302</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_43.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.1465212060316351</v>
-      </c>
-      <c r="C78" t="n">
-        <v>6.764959729430567e-05</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.8534111443710705</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.8534111443710705</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_46.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.1210610714554061</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.0003339487166447375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.8786049798279492</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.8786049798279492</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_54.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.1045940983485225</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.002097181369982106</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.8933087202814954</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.8933087202814954</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_6.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.3870281087018057</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.005682547298078777</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.6072893440001155</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.6072893440001155</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_60.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.08839937372377402</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.003501423175352517</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.9080992031008734</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.9080992031008734</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_62.fasta</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.08289667035702888</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.0008511990319040602</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0.916252130611067</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0.916252130611067</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900547555</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_67.fasta</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.3423836746326712</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.3425530579525928</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0.3150632674147361</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0.3425530579525928</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>s__UBA11471 sp900542765</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS999_7.fasta</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.3482424040525535</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.002668744593009711</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0.6490888513544367</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0.6490888513544367</v>
-      </c>
-      <c r="F85" t="inlineStr">
         <is>
           <t>s__UBA11471 sp900547555</t>
         </is>
